--- a/data/force_parti_ofs.xlsx
+++ b/data/force_parti_ofs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\master-thesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A7DFA-1DE3-4BCC-83D6-0D4647DE4C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A975F3-5289-4B96-87DF-8C17D0DAA03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T17.2.2.3.3.1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="73">
   <si>
     <t>PDC</t>
   </si>
@@ -343,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -421,12 +421,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -495,12 +504,6 @@
     </xf>
     <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -545,6 +548,18 @@
     </xf>
     <xf numFmtId="169" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1981,7 +1996,7 @@
             <c:numRef>
               <c:f>Feuil2!$P$4:$P$15</c:f>
               <c:numCache>
-                <c:formatCode>#\ ###\ ##0__;\-#\ ###\ ##0__;0__;@__\ </c:formatCode>
+                <c:formatCode>#,###,##0__;\-#,###,##0__;0__;@__\ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
@@ -2100,7 +2115,7 @@
             <c:numRef>
               <c:f>Feuil2!$Q$4:$Q$15</c:f>
               <c:numCache>
-                <c:formatCode>#\ ###\ ##0__;\-#\ ###\ ##0__;0__;@__\ </c:formatCode>
+                <c:formatCode>#,###,##0__;\-#,###,##0__;0__;@__\ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2219,7 +2234,7 @@
             <c:numRef>
               <c:f>Feuil2!$R$4:$R$15</c:f>
               <c:numCache>
-                <c:formatCode>#\ ###\ ##0__;\-#\ ###\ ##0__;0__;@__\ </c:formatCode>
+                <c:formatCode>#,###,##0__;\-#,###,##0__;0__;@__\ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2338,7 +2353,7 @@
             <c:numRef>
               <c:f>Feuil2!$S$4:$S$15</c:f>
               <c:numCache>
-                <c:formatCode>#\ ###\ ##0__;\-#\ ###\ ##0__;0__;@__\ </c:formatCode>
+                <c:formatCode>#,###,##0__;\-#,###,##0__;0__;@__\ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2457,7 +2472,7 @@
             <c:numRef>
               <c:f>Feuil2!$T$4:$T$15</c:f>
               <c:numCache>
-                <c:formatCode>#\ ###\ ##0__;\-#\ ###\ ##0__;0__;@__\ </c:formatCode>
+                <c:formatCode>#,###,##0__;\-#,###,##0__;0__;@__\ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2589,7 +2604,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#\ ###\ ##0__;\-#\ ###\ ##0__;0__;@__\ " sourceLinked="1"/>
+        <c:numFmt formatCode="#,###,##0__;\-#,###,##0__;0__;@__\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4176,15 +4191,15 @@
       <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.65" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="25" width="6.140625" style="1" customWidth="1"/>
-    <col min="26" max="28" width="6.140625" style="14" customWidth="1"/>
-    <col min="29" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="25" width="6.1796875" style="1" customWidth="1"/>
+    <col min="26" max="28" width="6.1796875" style="14" customWidth="1"/>
+    <col min="29" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="23.85" customHeight="1">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="23.9" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -4213,12 +4228,12 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="5"/>
-      <c r="AA1" s="34" t="s">
+      <c r="AA1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="34"/>
+      <c r="AB1" s="52"/>
     </row>
-    <row r="2" spans="1:32" ht="23.85" customHeight="1">
+    <row r="2" spans="1:32" ht="23.9" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
@@ -4391,7 +4406,7 @@
       </c>
       <c r="AC3" s="32"/>
     </row>
-    <row r="4" spans="1:32" ht="12.6" customHeight="1">
+    <row r="4" spans="1:32" ht="12.65" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -4478,7 +4493,7 @@
       </c>
       <c r="AC4" s="32"/>
     </row>
-    <row r="5" spans="1:32" ht="12.6" customHeight="1">
+    <row r="5" spans="1:32" ht="12.65" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
@@ -4568,7 +4583,7 @@
       <c r="AE5" s="33"/>
       <c r="AF5" s="33"/>
     </row>
-    <row r="6" spans="1:32" ht="12.6" customHeight="1">
+    <row r="6" spans="1:32" ht="12.65" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -4657,7 +4672,7 @@
       <c r="AD6" s="33"/>
       <c r="AE6" s="33"/>
     </row>
-    <row r="7" spans="1:32" ht="12.6" customHeight="1">
+    <row r="7" spans="1:32" ht="12.65" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -4744,7 +4759,7 @@
       </c>
       <c r="AC7" s="32"/>
     </row>
-    <row r="8" spans="1:32" ht="12.6" customHeight="1">
+    <row r="8" spans="1:32" ht="12.65" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -4831,7 +4846,7 @@
       </c>
       <c r="AC8" s="32"/>
     </row>
-    <row r="9" spans="1:32" ht="12.6" customHeight="1">
+    <row r="9" spans="1:32" ht="12.65" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
@@ -4918,7 +4933,7 @@
       </c>
       <c r="AC9" s="32"/>
     </row>
-    <row r="10" spans="1:32" ht="12.6" customHeight="1">
+    <row r="10" spans="1:32" ht="12.65" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -5005,7 +5020,7 @@
       </c>
       <c r="AC10" s="32"/>
     </row>
-    <row r="11" spans="1:32" ht="12.6" customHeight="1">
+    <row r="11" spans="1:32" ht="12.65" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -5092,7 +5107,7 @@
       </c>
       <c r="AC11" s="32"/>
     </row>
-    <row r="12" spans="1:32" ht="12.6" customHeight="1">
+    <row r="12" spans="1:32" ht="12.65" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -5179,7 +5194,7 @@
       </c>
       <c r="AC12" s="32"/>
     </row>
-    <row r="13" spans="1:32" ht="12.6" customHeight="1">
+    <row r="13" spans="1:32" ht="12.65" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
@@ -5266,7 +5281,7 @@
       </c>
       <c r="AC13" s="32"/>
     </row>
-    <row r="14" spans="1:32" ht="12.6" customHeight="1">
+    <row r="14" spans="1:32" ht="12.65" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -5353,7 +5368,7 @@
       </c>
       <c r="AC14" s="32"/>
     </row>
-    <row r="15" spans="1:32" ht="12.6" customHeight="1">
+    <row r="15" spans="1:32" ht="12.65" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -5441,7 +5456,7 @@
       <c r="AC15" s="32"/>
       <c r="AD15" s="33"/>
     </row>
-    <row r="16" spans="1:32" ht="12.6" customHeight="1">
+    <row r="16" spans="1:32" ht="12.65" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
@@ -5528,7 +5543,7 @@
       </c>
       <c r="AC16" s="32"/>
     </row>
-    <row r="17" spans="1:29" ht="12.6" customHeight="1">
+    <row r="17" spans="1:29" ht="12.65" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>3</v>
       </c>
@@ -5615,7 +5630,7 @@
       </c>
       <c r="AC17" s="32"/>
     </row>
-    <row r="18" spans="1:29" ht="12.6" customHeight="1">
+    <row r="18" spans="1:29" ht="12.65" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -5789,7 +5804,7 @@
       </c>
       <c r="AC19" s="32"/>
     </row>
-    <row r="20" spans="1:29" ht="12.6" customHeight="1">
+    <row r="20" spans="1:29" ht="12.65" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -5876,7 +5891,7 @@
       </c>
       <c r="AC20" s="32"/>
     </row>
-    <row r="21" spans="1:29" ht="12.6" customHeight="1">
+    <row r="21" spans="1:29" ht="12.65" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
@@ -5963,7 +5978,7 @@
       </c>
       <c r="AC21" s="32"/>
     </row>
-    <row r="22" spans="1:29" ht="12.6" customHeight="1">
+    <row r="22" spans="1:29" ht="12.65" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
@@ -6050,7 +6065,7 @@
       </c>
       <c r="AC22" s="32"/>
     </row>
-    <row r="23" spans="1:29" ht="12.6" customHeight="1">
+    <row r="23" spans="1:29" ht="12.65" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -6137,7 +6152,7 @@
       </c>
       <c r="AC23" s="32"/>
     </row>
-    <row r="24" spans="1:29" ht="12.6" customHeight="1">
+    <row r="24" spans="1:29" ht="12.65" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>16</v>
       </c>
@@ -6224,7 +6239,7 @@
       </c>
       <c r="AC24" s="32"/>
     </row>
-    <row r="25" spans="1:29" ht="12.6" customHeight="1">
+    <row r="25" spans="1:29" ht="12.65" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -6311,7 +6326,7 @@
       </c>
       <c r="AC25" s="32"/>
     </row>
-    <row r="26" spans="1:29" ht="12.6" customHeight="1">
+    <row r="26" spans="1:29" ht="12.65" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
@@ -6398,7 +6413,7 @@
       </c>
       <c r="AC26" s="32"/>
     </row>
-    <row r="27" spans="1:29" s="14" customFormat="1" ht="12.6" customHeight="1">
+    <row r="27" spans="1:29" s="14" customFormat="1" ht="12.65" customHeight="1">
       <c r="A27" s="26" t="s">
         <v>5</v>
       </c>
@@ -6510,7 +6525,7 @@
         <v>100.0000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="22" customFormat="1" ht="12.6" customHeight="1">
+    <row r="28" spans="1:29" s="22" customFormat="1" ht="12.65" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -6540,7 +6555,7 @@
       <c r="AA28" s="30"/>
       <c r="AB28" s="30"/>
     </row>
-    <row r="29" spans="1:29" ht="12.6" customHeight="1">
+    <row r="29" spans="1:29" ht="12.65" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
@@ -6569,7 +6584,7 @@
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
     </row>
-    <row r="30" spans="1:29" ht="12.6" customHeight="1">
+    <row r="30" spans="1:29" ht="12.65" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -6596,7 +6611,7 @@
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
     </row>
-    <row r="31" spans="1:29" ht="12.6" customHeight="1">
+    <row r="31" spans="1:29" ht="12.65" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>18</v>
       </c>
@@ -6625,7 +6640,7 @@
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
     </row>
-    <row r="32" spans="1:29" ht="12.6" customHeight="1">
+    <row r="32" spans="1:29" ht="12.65" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>19</v>
       </c>
@@ -6654,7 +6669,7 @@
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
     </row>
-    <row r="33" spans="1:28" ht="12.6" customHeight="1">
+    <row r="33" spans="1:28" ht="12.65" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>20</v>
       </c>
@@ -6683,7 +6698,7 @@
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
     </row>
-    <row r="34" spans="1:28" ht="12.6" customHeight="1">
+    <row r="34" spans="1:28" ht="12.65" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>32</v>
       </c>
@@ -6712,7 +6727,7 @@
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
-    <row r="35" spans="1:28" ht="12.6" customHeight="1">
+    <row r="35" spans="1:28" ht="12.65" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
@@ -6742,38 +6757,38 @@
       <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="1:28" ht="29.25" customHeight="1">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
     </row>
-    <row r="37" spans="1:28" ht="12.6" customHeight="1">
+    <row r="37" spans="1:28" ht="12.65" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -6800,7 +6815,7 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
     </row>
-    <row r="38" spans="1:28" ht="12.6" customHeight="1">
+    <row r="38" spans="1:28" ht="12.65" customHeight="1">
       <c r="A38" s="23" t="s">
         <v>41</v>
       </c>
@@ -6829,7 +6844,7 @@
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
     </row>
-    <row r="39" spans="1:28" ht="12.6" customHeight="1">
+    <row r="39" spans="1:28" ht="12.65" customHeight="1">
       <c r="A39" s="23"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -6856,7 +6871,7 @@
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
     </row>
-    <row r="40" spans="1:28" ht="12.6" customHeight="1">
+    <row r="40" spans="1:28" ht="12.65" customHeight="1">
       <c r="A40" s="23" t="s">
         <v>35</v>
       </c>
@@ -6885,7 +6900,7 @@
       <c r="X40" s="18"/>
       <c r="Y40" s="18"/>
     </row>
-    <row r="41" spans="1:28" ht="12.6" customHeight="1">
+    <row r="41" spans="1:28" ht="12.65" customHeight="1">
       <c r="A41" s="24" t="s">
         <v>36</v>
       </c>
@@ -6914,7 +6929,7 @@
       <c r="X41" s="18"/>
       <c r="Y41" s="18"/>
     </row>
-    <row r="42" spans="1:28" ht="12.6" customHeight="1">
+    <row r="42" spans="1:28" ht="12.65" customHeight="1">
       <c r="A42" s="24"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -6941,7 +6956,7 @@
       <c r="X42" s="18"/>
       <c r="Y42" s="18"/>
     </row>
-    <row r="43" spans="1:28" ht="12.6" customHeight="1">
+    <row r="43" spans="1:28" ht="12.65" customHeight="1">
       <c r="A43" s="25" t="s">
         <v>37</v>
       </c>
@@ -6970,7 +6985,7 @@
       <c r="X43" s="18"/>
       <c r="Y43" s="18"/>
     </row>
-    <row r="44" spans="1:28" ht="12.6" customHeight="1">
+    <row r="44" spans="1:28" ht="12.65" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -6997,8 +7012,8 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
     </row>
-    <row r="45" spans="1:28" ht="12.6" customHeight="1">
-      <c r="A45" s="36" t="s">
+    <row r="45" spans="1:28" ht="12.65" customHeight="1">
+      <c r="A45" s="34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7019,13 +7034,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF8DBC9-7599-447B-89AB-0613B818ED5C}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="19"/>
@@ -9179,6 +9195,83 @@
       </c>
       <c r="Y28" s="13">
         <v>1.8424850014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="54">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="55">
+        <v>14.25</v>
+      </c>
+      <c r="C29" s="11">
+        <v>14.06</v>
+      </c>
+      <c r="D29" s="10">
+        <v>18.27</v>
+      </c>
+      <c r="E29" s="11">
+        <v>27.93</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="K29" s="11">
+        <v>7.55</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="10">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29" s="13">
+        <v>1.23</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W29" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X29" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>2.84</v>
       </c>
     </row>
   </sheetData>
@@ -9195,17 +9288,17 @@
       <selection activeCell="O3" sqref="O3:T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.6" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.65" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="11" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
+    <col min="3" max="11" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12.6" customHeight="1">
+    <row r="1" spans="1:20" ht="12.65" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -9224,409 +9317,409 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="12.6" customHeight="1">
+    <row r="2" spans="1:20" ht="12.65" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
-    <row r="3" spans="1:20" ht="12.6" customHeight="1">
+    <row r="3" spans="1:20" ht="12.65" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="39" t="s">
         <v>57</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="46" t="s">
+      <c r="S3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="12.6" customHeight="1">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:20" ht="12.65" customHeight="1">
+      <c r="A4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="O4" s="40" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="O4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="43">
         <v>7</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="45">
         <v>0</v>
       </c>
-      <c r="R4" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="49" t="s">
+      <c r="R4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="12.6" customHeight="1">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:20" ht="12.65" customHeight="1">
+      <c r="A5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="43">
         <v>7</v>
       </c>
-      <c r="C5" s="45">
-        <v>6</v>
-      </c>
-      <c r="D5" s="45">
+      <c r="C5" s="43">
+        <v>6</v>
+      </c>
+      <c r="D5" s="43">
         <v>5</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="43">
         <v>4</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="43">
         <v>3</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="43">
         <v>4</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="43">
         <v>3</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="43">
         <v>2</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="43">
         <v>2</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="43">
         <v>2</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="43">
         <v>2</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="43">
         <v>2</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="45">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="47">
+      <c r="P5" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="45">
         <v>1</v>
       </c>
-      <c r="R5" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="47">
+      <c r="R5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="45">
         <v>0</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="T5" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="12.6" customHeight="1">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:20" ht="12.65" customHeight="1">
+      <c r="A6" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="45">
         <v>0</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>2</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="45">
         <v>2</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="45">
         <v>2</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="45">
         <v>2</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="45">
         <v>3</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="45">
         <v>2</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="45">
         <v>1</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="45">
         <v>1</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="45">
         <v>1</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="45">
         <v>1</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="43">
         <v>5</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="45">
         <v>2</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="43">
         <v>0</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="45">
         <v>0</v>
       </c>
-      <c r="T6" s="49" t="s">
+      <c r="T6" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="12.6" customHeight="1">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:20" ht="12.65" customHeight="1">
+      <c r="A7" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="45">
+      <c r="B7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="43">
         <v>0</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="43">
         <v>1</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="43">
         <v>1</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="43">
         <v>1</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="43">
         <v>1</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="43">
         <v>2</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="43">
         <v>0</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="43">
         <v>1</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="43">
         <v>2</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="43">
         <v>4</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="45">
         <v>2</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="43">
         <v>1</v>
       </c>
-      <c r="S7" s="47">
+      <c r="S7" s="45">
         <v>0</v>
       </c>
-      <c r="T7" s="49" t="s">
+      <c r="T7" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="12.6" customHeight="1">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:20" ht="12.65" customHeight="1">
+      <c r="A8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="47">
+      <c r="B8" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="45">
         <v>0</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>0</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="45">
         <v>0</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="45">
         <v>1</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="45">
         <v>0</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="45">
         <v>0</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="45">
         <v>2</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="45">
         <v>2</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="45">
         <v>2</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="45">
         <v>2</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="45">
         <v>2</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="43">
         <v>3</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="45">
         <v>2</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="43">
         <v>1</v>
       </c>
-      <c r="S8" s="47">
+      <c r="S8" s="45">
         <v>1</v>
       </c>
-      <c r="T8" s="49" t="s">
+      <c r="T8" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="12.6" customHeight="1">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:20" ht="12.65" customHeight="1">
+      <c r="A9" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="49">
+      <c r="B9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="47">
         <v>2</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="47">
         <v>1</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="47">
         <v>0</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="43">
         <v>4</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="45">
         <v>2</v>
       </c>
-      <c r="R9" s="45">
+      <c r="R9" s="43">
         <v>1</v>
       </c>
-      <c r="S9" s="47">
+      <c r="S9" s="45">
         <v>0</v>
       </c>
-      <c r="T9" s="49" t="s">
+      <c r="T9" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="12.6" customHeight="1">
+    <row r="10" spans="1:20" ht="12.65" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -9642,26 +9735,26 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="43">
         <v>3</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="45">
         <v>3</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="43">
         <v>1</v>
       </c>
-      <c r="S10" s="47">
+      <c r="S10" s="45">
         <v>0</v>
       </c>
-      <c r="T10" s="49" t="s">
+      <c r="T10" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="12.6" customHeight="1">
+    <row r="11" spans="1:20" ht="12.65" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -9677,27 +9770,27 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="43">
         <v>2</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="45">
         <v>2</v>
       </c>
-      <c r="R11" s="45">
+      <c r="R11" s="43">
         <v>1</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S11" s="45">
         <v>2</v>
       </c>
-      <c r="T11" s="49" t="s">
+      <c r="T11" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="12.6" customHeight="1">
-      <c r="A12" s="50" t="s">
+    <row r="12" spans="1:20" ht="12.65" customHeight="1">
+      <c r="A12" s="48" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="7"/>
@@ -9712,26 +9805,26 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="43">
         <v>2</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="45">
         <v>1</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="43">
         <v>2</v>
       </c>
-      <c r="S12" s="47">
+      <c r="S12" s="45">
         <v>2</v>
       </c>
-      <c r="T12" s="49" t="s">
+      <c r="T12" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="12.6" customHeight="1">
+    <row r="13" spans="1:20" ht="12.65" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>65</v>
       </c>
@@ -9747,26 +9840,26 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="43">
         <v>2</v>
       </c>
-      <c r="Q13" s="47">
+      <c r="Q13" s="45">
         <v>1</v>
       </c>
-      <c r="R13" s="45">
+      <c r="R13" s="43">
         <v>0</v>
       </c>
-      <c r="S13" s="47">
+      <c r="S13" s="45">
         <v>2</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="12.6" customHeight="1">
+    <row r="14" spans="1:20" ht="12.65" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
@@ -9782,27 +9875,27 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="O14" s="40" t="s">
+      <c r="O14" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="43">
         <v>2</v>
       </c>
-      <c r="Q14" s="47">
+      <c r="Q14" s="45">
         <v>1</v>
       </c>
-      <c r="R14" s="45">
+      <c r="R14" s="43">
         <v>1</v>
       </c>
-      <c r="S14" s="47">
+      <c r="S14" s="45">
         <v>2</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="12.6" customHeight="1">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:20" ht="12.65" customHeight="1">
+      <c r="A15" s="42" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="7"/>
@@ -9817,27 +9910,27 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="O15" s="41" t="s">
+      <c r="O15" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="43">
         <v>2</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="45">
         <v>1</v>
       </c>
-      <c r="R15" s="45">
+      <c r="R15" s="43">
         <v>2</v>
       </c>
-      <c r="S15" s="47">
+      <c r="S15" s="45">
         <v>2</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="47">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="12.6" customHeight="1">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:20" ht="12.65" customHeight="1">
+      <c r="A16" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="7"/>
@@ -9853,46 +9946,46 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" ht="12.6" customHeight="1">
+    <row r="17" spans="1:13" ht="12.65" customHeight="1">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="12.6" customHeight="1">
+    <row r="18" spans="1:13" ht="12.65" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.6" customHeight="1">
+    <row r="19" spans="1:13" ht="12.65" customHeight="1">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:13" ht="12.6" customHeight="1">
+    <row r="20" spans="1:13" ht="12.65" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
     </row>
-    <row r="21" spans="1:13" ht="12.6" customHeight="1">
+    <row r="21" spans="1:13" ht="12.65" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
     </row>
-    <row r="22" spans="1:13" ht="12.6" customHeight="1">
+    <row r="22" spans="1:13" ht="12.65" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
     </row>
-    <row r="23" spans="1:13" ht="12.6" customHeight="1">
+    <row r="23" spans="1:13" ht="12.65" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
